--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efemp1-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Efemp1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.536358</v>
+        <v>2.325466</v>
       </c>
       <c r="H2">
-        <v>7.609074000000001</v>
+        <v>6.976398000000001</v>
       </c>
       <c r="I2">
-        <v>0.04139948507354423</v>
+        <v>0.03804623361484849</v>
       </c>
       <c r="J2">
-        <v>0.04139948507354423</v>
+        <v>0.0380462336148485</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>3.99255721854</v>
+        <v>3.957779574224666</v>
       </c>
       <c r="R2">
-        <v>35.93301496686</v>
+        <v>35.620016168022</v>
       </c>
       <c r="S2">
-        <v>0.0008382827181402329</v>
+        <v>0.000801110202687089</v>
       </c>
       <c r="T2">
-        <v>0.0008382827181402328</v>
+        <v>0.0008011102026870891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.536358</v>
+        <v>2.325466</v>
       </c>
       <c r="H3">
-        <v>7.609074000000001</v>
+        <v>6.976398000000001</v>
       </c>
       <c r="I3">
-        <v>0.04139948507354423</v>
+        <v>0.03804623361484849</v>
       </c>
       <c r="J3">
-        <v>0.04139948507354423</v>
+        <v>0.0380462336148485</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>158.532386005026</v>
+        <v>145.350803614302</v>
       </c>
       <c r="R3">
-        <v>1426.791474045234</v>
+        <v>1308.157232528718</v>
       </c>
       <c r="S3">
-        <v>0.03328567436339632</v>
+        <v>0.02942104519981911</v>
       </c>
       <c r="T3">
-        <v>0.03328567436339632</v>
+        <v>0.02942104519981912</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.536358</v>
+        <v>2.325466</v>
       </c>
       <c r="H4">
-        <v>7.609074000000001</v>
+        <v>6.976398000000001</v>
       </c>
       <c r="I4">
-        <v>0.04139948507354423</v>
+        <v>0.03804623361484849</v>
       </c>
       <c r="J4">
-        <v>0.04139948507354423</v>
+        <v>0.0380462336148485</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>0.4639074872740001</v>
+        <v>1.008947607954</v>
       </c>
       <c r="R4">
-        <v>4.175167385466001</v>
+        <v>9.080528471586002</v>
       </c>
       <c r="S4">
-        <v>9.740264399763872E-05</v>
+        <v>0.0002042251741286085</v>
       </c>
       <c r="T4">
-        <v>9.740264399763869E-05</v>
+        <v>0.0002042251741286086</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.536358</v>
+        <v>2.325466</v>
       </c>
       <c r="H5">
-        <v>7.609074000000001</v>
+        <v>6.976398000000001</v>
       </c>
       <c r="I5">
-        <v>0.04139948507354423</v>
+        <v>0.03804623361484849</v>
       </c>
       <c r="J5">
-        <v>0.04139948507354423</v>
+        <v>0.0380462336148485</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>33.94991104649467</v>
+        <v>37.143235930944</v>
       </c>
       <c r="R5">
-        <v>305.549199418452</v>
+        <v>334.289123378496</v>
       </c>
       <c r="S5">
-        <v>0.007128169279708356</v>
+        <v>0.007518312909309031</v>
       </c>
       <c r="T5">
-        <v>0.007128169279708355</v>
+        <v>0.007518312909309034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.536358</v>
+        <v>2.325466</v>
       </c>
       <c r="H6">
-        <v>7.609074000000001</v>
+        <v>6.976398000000001</v>
       </c>
       <c r="I6">
-        <v>0.04139948507354423</v>
+        <v>0.03804623361484849</v>
       </c>
       <c r="J6">
-        <v>0.04139948507354423</v>
+        <v>0.0380462336148485</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>0.2379298258113333</v>
+        <v>0.5016456497433334</v>
       </c>
       <c r="R6">
-        <v>2.141368432302</v>
+        <v>4.514810847690001</v>
       </c>
       <c r="S6">
-        <v>4.995606830168173E-05</v>
+        <v>0.0001015401289046537</v>
       </c>
       <c r="T6">
-        <v>4.995606830168172E-05</v>
+        <v>0.0001015401289046537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>175.253734</v>
       </c>
       <c r="I7">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938732</v>
       </c>
       <c r="J7">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938733</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>91.95738676714001</v>
+        <v>99.42317636290289</v>
       </c>
       <c r="R7">
-        <v>827.61648090426</v>
+        <v>894.808587266126</v>
       </c>
       <c r="S7">
-        <v>0.01930749740398705</v>
+        <v>0.02012464804422127</v>
       </c>
       <c r="T7">
-        <v>0.01930749740398705</v>
+        <v>0.02012464804422127</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>175.253734</v>
       </c>
       <c r="I8">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938732</v>
       </c>
       <c r="J8">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938733</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>3651.350033829367</v>
@@ -948,10 +948,10 @@
         <v>32862.1503044643</v>
       </c>
       <c r="S8">
-        <v>0.7666423957623856</v>
+        <v>0.7390845575970686</v>
       </c>
       <c r="T8">
-        <v>0.7666423957623857</v>
+        <v>0.7390845575970688</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>175.253734</v>
       </c>
       <c r="I9">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938732</v>
       </c>
       <c r="J9">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938733</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>10.68481123660067</v>
+        <v>25.345720772282</v>
       </c>
       <c r="R9">
-        <v>96.16330112940601</v>
+        <v>228.1114869505381</v>
       </c>
       <c r="S9">
-        <v>0.002243397430759494</v>
+        <v>0.005130330056117617</v>
       </c>
       <c r="T9">
-        <v>0.002243397430759494</v>
+        <v>0.005130330056117619</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>175.253734</v>
       </c>
       <c r="I10">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938732</v>
       </c>
       <c r="J10">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938733</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>781.9412296247925</v>
+        <v>933.0733122939521</v>
       </c>
       <c r="R10">
-        <v>7037.471066623132</v>
+        <v>8397.659810645569</v>
       </c>
       <c r="S10">
-        <v>0.1641774390488225</v>
+        <v>0.1888671504602821</v>
       </c>
       <c r="T10">
-        <v>0.1641774390488225</v>
+        <v>0.1888671504602821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>175.253734</v>
       </c>
       <c r="I11">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938732</v>
       </c>
       <c r="J11">
-        <v>0.953521327932399</v>
+        <v>0.9557574704938733</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>5.480047953720223</v>
+        <v>12.60181446964111</v>
       </c>
       <c r="R11">
-        <v>49.320431583482</v>
+        <v>113.41633022677</v>
       </c>
       <c r="S11">
-        <v>0.001150598286444416</v>
+        <v>0.0025507843361835</v>
       </c>
       <c r="T11">
-        <v>0.001150598286444416</v>
+        <v>0.0025507843361835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3111786666666667</v>
+        <v>0.2044496666666667</v>
       </c>
       <c r="H12">
-        <v>0.9335359999999999</v>
+        <v>0.613349</v>
       </c>
       <c r="I12">
-        <v>0.005079186994056857</v>
+        <v>0.003344938081433099</v>
       </c>
       <c r="J12">
-        <v>0.005079186994056856</v>
+        <v>0.003344938081433099</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>0.48983567456</v>
+        <v>0.3479589530401111</v>
       </c>
       <c r="R12">
-        <v>4.408521071039999</v>
+        <v>3.131630577361</v>
       </c>
       <c r="S12">
-        <v>0.0001028465612979661</v>
+        <v>7.043178180314874E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001028465612979661</v>
+        <v>7.043178180314877E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3111786666666667</v>
+        <v>0.2044496666666667</v>
       </c>
       <c r="H13">
-        <v>0.9335359999999999</v>
+        <v>0.613349</v>
       </c>
       <c r="I13">
-        <v>0.005079186994056857</v>
+        <v>0.003344938081433099</v>
       </c>
       <c r="J13">
-        <v>0.005079186994056856</v>
+        <v>0.003344938081433099</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>19.449894888864</v>
+        <v>12.778911129501</v>
       </c>
       <c r="R13">
-        <v>175.049053999776</v>
+        <v>115.010200165509</v>
       </c>
       <c r="S13">
-        <v>0.004083726259267231</v>
+        <v>0.002586631188797406</v>
       </c>
       <c r="T13">
-        <v>0.004083726259267231</v>
+        <v>0.002586631188797408</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3111786666666667</v>
+        <v>0.2044496666666667</v>
       </c>
       <c r="H14">
-        <v>0.9335359999999999</v>
+        <v>0.613349</v>
       </c>
       <c r="I14">
-        <v>0.005079186994056857</v>
+        <v>0.003344938081433099</v>
       </c>
       <c r="J14">
-        <v>0.005079186994056856</v>
+        <v>0.003344938081433099</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>0.05691551166933333</v>
+        <v>0.08870437242700001</v>
       </c>
       <c r="R14">
-        <v>0.512239605024</v>
+        <v>0.7983393518430002</v>
       </c>
       <c r="S14">
-        <v>1.195005787392522E-05</v>
+        <v>1.795501150115115E-05</v>
       </c>
       <c r="T14">
-        <v>1.195005787392522E-05</v>
+        <v>1.795501150115116E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3111786666666667</v>
+        <v>0.2044496666666667</v>
       </c>
       <c r="H15">
-        <v>0.9335359999999999</v>
+        <v>0.613349</v>
       </c>
       <c r="I15">
-        <v>0.005079186994056857</v>
+        <v>0.003344938081433099</v>
       </c>
       <c r="J15">
-        <v>0.005079186994056856</v>
+        <v>0.003344938081433099</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>4.165219599480889</v>
+        <v>3.265548584672</v>
       </c>
       <c r="R15">
-        <v>37.486976395328</v>
+        <v>29.389937262048</v>
       </c>
       <c r="S15">
-        <v>0.0008745351453674677</v>
+        <v>0.0006609929227965183</v>
       </c>
       <c r="T15">
-        <v>0.0008745351453674676</v>
+        <v>0.0006609929227965186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2044496666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.613349</v>
+      </c>
+      <c r="I16">
+        <v>0.003344938081433099</v>
+      </c>
+      <c r="J16">
+        <v>0.003344938081433099</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2157183333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.647155</v>
+      </c>
+      <c r="O16">
+        <v>0.002668861520763652</v>
+      </c>
+      <c r="P16">
+        <v>0.002668861520763652</v>
+      </c>
+      <c r="Q16">
+        <v>0.04410354134388889</v>
+      </c>
+      <c r="R16">
+        <v>0.396931872095</v>
+      </c>
+      <c r="S16">
+        <v>8.927176534873794E-06</v>
+      </c>
+      <c r="T16">
+        <v>8.927176534873795E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.174281</v>
+      </c>
+      <c r="H17">
+        <v>0.5228429999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="J17">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.701929666666667</v>
+      </c>
+      <c r="N17">
+        <v>5.105789</v>
+      </c>
+      <c r="O17">
+        <v>0.02105622887134972</v>
+      </c>
+      <c r="P17">
+        <v>0.02105622887134972</v>
+      </c>
+      <c r="Q17">
+        <v>0.2966140042363333</v>
+      </c>
+      <c r="R17">
+        <v>2.669526038127</v>
+      </c>
+      <c r="S17">
+        <v>6.003884263821038E-05</v>
+      </c>
+      <c r="T17">
+        <v>6.003884263821038E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.174281</v>
+      </c>
+      <c r="H18">
+        <v>0.5228429999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="J18">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>62.503947</v>
+      </c>
+      <c r="N18">
+        <v>187.511841</v>
+      </c>
+      <c r="O18">
+        <v>0.7732971809418951</v>
+      </c>
+      <c r="P18">
+        <v>0.7732971809418953</v>
+      </c>
+      <c r="Q18">
+        <v>10.893250387107</v>
+      </c>
+      <c r="R18">
+        <v>98.03925348396299</v>
+      </c>
+      <c r="S18">
+        <v>0.002204946956209927</v>
+      </c>
+      <c r="T18">
+        <v>0.002204946956209927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.3111786666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.9335359999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.005079186994056857</v>
-      </c>
-      <c r="J16">
-        <v>0.005079186994056856</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.09380766666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.281423</v>
-      </c>
-      <c r="O16">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="P16">
-        <v>0.001206683324996365</v>
-      </c>
-      <c r="Q16">
-        <v>0.02919094463644444</v>
-      </c>
-      <c r="R16">
-        <v>0.2627185017279999</v>
-      </c>
-      <c r="S16">
-        <v>6.128970250266819E-06</v>
-      </c>
-      <c r="T16">
-        <v>6.128970250266818E-06</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.174281</v>
+      </c>
+      <c r="H19">
+        <v>0.5228429999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="J19">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4338690000000001</v>
+      </c>
+      <c r="N19">
+        <v>1.301607</v>
+      </c>
+      <c r="O19">
+        <v>0.005367815805265532</v>
+      </c>
+      <c r="P19">
+        <v>0.005367815805265533</v>
+      </c>
+      <c r="Q19">
+        <v>0.075615123189</v>
+      </c>
+      <c r="R19">
+        <v>0.680536108701</v>
+      </c>
+      <c r="S19">
+        <v>1.530556351815422E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.530556351815422E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.174281</v>
+      </c>
+      <c r="H20">
+        <v>0.5228429999999999</v>
+      </c>
+      <c r="I20">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="J20">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>15.972384</v>
+      </c>
+      <c r="N20">
+        <v>47.917152</v>
+      </c>
+      <c r="O20">
+        <v>0.1976099128607259</v>
+      </c>
+      <c r="P20">
+        <v>0.1976099128607259</v>
+      </c>
+      <c r="Q20">
+        <v>2.783683055904</v>
+      </c>
+      <c r="R20">
+        <v>25.053147503136</v>
+      </c>
+      <c r="S20">
+        <v>0.0005634565683382544</v>
+      </c>
+      <c r="T20">
+        <v>0.0005634565683382545</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.174281</v>
+      </c>
+      <c r="H21">
+        <v>0.5228429999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="J21">
+        <v>0.002851357809845171</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2157183333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.647155</v>
+      </c>
+      <c r="O21">
+        <v>0.002668861520763652</v>
+      </c>
+      <c r="P21">
+        <v>0.002668861520763652</v>
+      </c>
+      <c r="Q21">
+        <v>0.03759560685166666</v>
+      </c>
+      <c r="R21">
+        <v>0.338360461665</v>
+      </c>
+      <c r="S21">
+        <v>7.609879140624699E-06</v>
+      </c>
+      <c r="T21">
+        <v>7.609879140624699E-06</v>
       </c>
     </row>
   </sheetData>
